--- a/excell/File Name.xlsx
+++ b/excell/File Name.xlsx
@@ -371,20 +371,30 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>4</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>msg</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pin</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>exp</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>created</t>
+        </is>
       </c>
     </row>
     <row r="2">
